--- a/resource/reports/stuTeams/2017spring_stu_teams.xlsx
+++ b/resource/reports/stuTeams/2017spring_stu_teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>团队id</t>
   </si>
@@ -31,15 +31,15 @@
     <t>TestTeam</t>
   </si>
   <si>
+    <t>张抑之</t>
+  </si>
+  <si>
+    <t>TestCourseTeam</t>
+  </si>
+  <si>
     <t>张贝贝</t>
   </si>
   <si>
-    <t>张抑之</t>
-  </si>
-  <si>
-    <t>TestCourseX</t>
-  </si>
-  <si>
     <t>张三丰</t>
   </si>
   <si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>赵四</t>
+  </si>
+  <si>
+    <t>刘能</t>
+  </si>
+  <si>
+    <t>薄瓜瓜</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,32 +413,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="n">
         <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="n">
         <v>110</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -445,6 +448,12 @@
       </c>
       <c r="H3" t="s">
         <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
